--- a/files/member_record/赵紫瑜.xlsx
+++ b/files/member_record/赵紫瑜.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,45 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024#94</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024#92</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024#91</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/member_record/赵紫瑜.xlsx
+++ b/files/member_record/赵紫瑜.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,39 +441,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024#94</t>
+          <t>2024#101</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1500</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024#92</t>
+          <t>2024#99</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1500</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024#91</t>
+          <t>2024#98</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024#96</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024#94</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024#92</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024#91</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>1500</v>
       </c>
     </row>
